--- a/data/TR/results/Comparison_Results.xlsx
+++ b/data/TR/results/Comparison_Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Original Distance</t>
   </si>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>Day 3</t>
-  </si>
-  <si>
-    <t>Day 4</t>
-  </si>
-  <si>
-    <t>Day 5</t>
   </si>
 </sst>
 </file>
@@ -117,13 +111,13 @@
         <v>23.69480013847351</v>
       </c>
       <c r="C2" t="n">
-        <v>22.091571807861328</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
         <v>3463.4730834960938</v>
       </c>
       <c r="E2" t="n">
-        <v>2081.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -134,13 +128,13 @@
         <v>4.0243000984191895</v>
       </c>
       <c r="C4" t="n">
-        <v>4.609101295471191</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
         <v>558.034423828125</v>
       </c>
       <c r="E4" t="n">
-        <v>355.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -151,13 +145,13 @@
         <v>4.17710018157959</v>
       </c>
       <c r="C5" t="n">
-        <v>3.637298822402954</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n">
         <v>554.5313720703125</v>
       </c>
       <c r="E5" t="n">
-        <v>374.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -168,13 +162,13 @@
         <v>3.596299886703491</v>
       </c>
       <c r="C6" t="n">
-        <v>3.413088321685791</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
         <v>533.150390625</v>
       </c>
       <c r="E6" t="n">
-        <v>327.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -185,47 +179,13 @@
         <v>4.21150016784668</v>
       </c>
       <c r="C7" t="n">
-        <v>3.637298822402954</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n">
         <v>608.7261962890625</v>
       </c>
       <c r="E7" t="n">
-        <v>374.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4.026899814605713</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.18915057182312</v>
-      </c>
-      <c r="D8" t="n">
-        <v>549.0443725585938</v>
-      </c>
-      <c r="E8" t="n">
-        <v>311.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.6586999893188477</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.6056344509124756</v>
-      </c>
-      <c r="D9" t="n">
-        <v>659.986328125</v>
-      </c>
-      <c r="E9" t="n">
-        <v>340.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/data/TR/results/Comparison_Results.xlsx
+++ b/data/TR/results/Comparison_Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Original Distance</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Day 5</t>
   </si>
 </sst>
 </file>
@@ -111,13 +117,13 @@
         <v>23.69480013847351</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>22.091571807861328</v>
       </c>
       <c r="D2" t="n">
         <v>3463.4730834960938</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>2081.0</v>
       </c>
     </row>
     <row r="4">
@@ -128,13 +134,13 @@
         <v>4.0243000984191895</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>4.609101295471191</v>
       </c>
       <c r="D4" t="n">
         <v>558.034423828125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="5">
@@ -145,13 +151,13 @@
         <v>4.17710018157959</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>3.637298822402954</v>
       </c>
       <c r="D5" t="n">
         <v>554.5313720703125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>374.0</v>
       </c>
     </row>
     <row r="6">
@@ -162,13 +168,13 @@
         <v>3.596299886703491</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>3.413088321685791</v>
       </c>
       <c r="D6" t="n">
         <v>533.150390625</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>327.0</v>
       </c>
     </row>
     <row r="7">
@@ -179,13 +185,47 @@
         <v>4.21150016784668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>3.637298822402954</v>
       </c>
       <c r="D7" t="n">
         <v>608.7261962890625</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>374.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.026899814605713</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.18915057182312</v>
+      </c>
+      <c r="D8" t="n">
+        <v>549.0443725585938</v>
+      </c>
+      <c r="E8" t="n">
+        <v>311.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.6586999893188477</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.6056344509124756</v>
+      </c>
+      <c r="D9" t="n">
+        <v>659.986328125</v>
+      </c>
+      <c r="E9" t="n">
+        <v>340.0</v>
       </c>
     </row>
   </sheetData>

--- a/data/TR/results/Comparison_Results.xlsx
+++ b/data/TR/results/Comparison_Results.xlsx
@@ -117,13 +117,13 @@
         <v>23.69480013847351</v>
       </c>
       <c r="C2" t="n">
-        <v>22.091571807861328</v>
+        <v>25.393569946289062</v>
       </c>
       <c r="D2" t="n">
         <v>3463.4730834960938</v>
       </c>
       <c r="E2" t="n">
-        <v>2081.0</v>
+        <v>2277.0</v>
       </c>
     </row>
     <row r="4">
@@ -134,13 +134,13 @@
         <v>4.0243000984191895</v>
       </c>
       <c r="C4" t="n">
-        <v>4.609101295471191</v>
+        <v>6.831668376922607</v>
       </c>
       <c r="D4" t="n">
         <v>558.034423828125</v>
       </c>
       <c r="E4" t="n">
-        <v>355.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="5">
@@ -168,13 +168,13 @@
         <v>3.596299886703491</v>
       </c>
       <c r="C6" t="n">
-        <v>3.413088321685791</v>
+        <v>3.9416000843048096</v>
       </c>
       <c r="D6" t="n">
         <v>533.150390625</v>
       </c>
       <c r="E6" t="n">
-        <v>327.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="7">
@@ -202,13 +202,13 @@
         <v>4.026899814605713</v>
       </c>
       <c r="C8" t="n">
-        <v>3.18915057182312</v>
+        <v>3.7400689125061035</v>
       </c>
       <c r="D8" t="n">
         <v>549.0443725585938</v>
       </c>
       <c r="E8" t="n">
-        <v>311.0</v>
+        <v>362.0</v>
       </c>
     </row>
     <row r="9">

--- a/data/TR/results/Comparison_Results.xlsx
+++ b/data/TR/results/Comparison_Results.xlsx
@@ -117,13 +117,13 @@
         <v>23.69480013847351</v>
       </c>
       <c r="C2" t="n">
-        <v>25.393569946289062</v>
+        <v>15.796417236328125</v>
       </c>
       <c r="D2" t="n">
         <v>3463.4730834960938</v>
       </c>
       <c r="E2" t="n">
-        <v>2277.0</v>
+        <v>2229.0</v>
       </c>
     </row>
     <row r="4">
@@ -134,13 +134,13 @@
         <v>4.0243000984191895</v>
       </c>
       <c r="C4" t="n">
-        <v>6.831668376922607</v>
+        <v>4.249732494354248</v>
       </c>
       <c r="D4" t="n">
         <v>558.034423828125</v>
       </c>
       <c r="E4" t="n">
-        <v>450.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="5">
@@ -151,13 +151,13 @@
         <v>4.17710018157959</v>
       </c>
       <c r="C5" t="n">
-        <v>3.637298822402954</v>
+        <v>2.2626311779022217</v>
       </c>
       <c r="D5" t="n">
         <v>554.5313720703125</v>
       </c>
       <c r="E5" t="n">
-        <v>374.0</v>
+        <v>367.0</v>
       </c>
     </row>
     <row r="6">
@@ -168,13 +168,13 @@
         <v>3.596299886703491</v>
       </c>
       <c r="C6" t="n">
-        <v>3.9416000843048096</v>
+        <v>2.4519267082214355</v>
       </c>
       <c r="D6" t="n">
         <v>533.150390625</v>
       </c>
       <c r="E6" t="n">
-        <v>377.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="7">
@@ -185,13 +185,13 @@
         <v>4.21150016784668</v>
       </c>
       <c r="C7" t="n">
-        <v>3.637298822402954</v>
+        <v>2.2626311779022217</v>
       </c>
       <c r="D7" t="n">
         <v>608.7261962890625</v>
       </c>
       <c r="E7" t="n">
-        <v>374.0</v>
+        <v>367.0</v>
       </c>
     </row>
     <row r="8">
@@ -202,13 +202,13 @@
         <v>4.026899814605713</v>
       </c>
       <c r="C8" t="n">
-        <v>3.7400689125061035</v>
+        <v>2.3265609741210938</v>
       </c>
       <c r="D8" t="n">
         <v>549.0443725585938</v>
       </c>
       <c r="E8" t="n">
-        <v>362.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="9">
@@ -219,13 +219,13 @@
         <v>3.6586999893188477</v>
       </c>
       <c r="C9" t="n">
-        <v>3.6056344509124756</v>
+        <v>2.242934226989746</v>
       </c>
       <c r="D9" t="n">
         <v>659.986328125</v>
       </c>
       <c r="E9" t="n">
-        <v>340.0</v>
+        <v>333.0</v>
       </c>
     </row>
   </sheetData>

--- a/data/TR/results/Comparison_Results.xlsx
+++ b/data/TR/results/Comparison_Results.xlsx
@@ -134,13 +134,13 @@
         <v>4.0243000984191895</v>
       </c>
       <c r="C4" t="n">
-        <v>4.249732494354248</v>
+        <v>2.242934226989746</v>
       </c>
       <c r="D4" t="n">
         <v>558.034423828125</v>
       </c>
       <c r="E4" t="n">
-        <v>437.0</v>
+        <v>333.0</v>
       </c>
     </row>
     <row r="5">
@@ -151,13 +151,13 @@
         <v>4.17710018157959</v>
       </c>
       <c r="C5" t="n">
-        <v>2.2626311779022217</v>
+        <v>4.249732494354248</v>
       </c>
       <c r="D5" t="n">
         <v>554.5313720703125</v>
       </c>
       <c r="E5" t="n">
-        <v>367.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="6">
@@ -168,13 +168,13 @@
         <v>3.596299886703491</v>
       </c>
       <c r="C6" t="n">
-        <v>2.4519267082214355</v>
+        <v>2.2626311779022217</v>
       </c>
       <c r="D6" t="n">
         <v>533.150390625</v>
       </c>
       <c r="E6" t="n">
-        <v>370.0</v>
+        <v>367.0</v>
       </c>
     </row>
     <row r="7">
@@ -185,13 +185,13 @@
         <v>4.21150016784668</v>
       </c>
       <c r="C7" t="n">
-        <v>2.2626311779022217</v>
+        <v>2.4519267082214355</v>
       </c>
       <c r="D7" t="n">
         <v>608.7261962890625</v>
       </c>
       <c r="E7" t="n">
-        <v>367.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="8">
@@ -202,13 +202,13 @@
         <v>4.026899814605713</v>
       </c>
       <c r="C8" t="n">
-        <v>2.3265609741210938</v>
+        <v>2.2626311779022217</v>
       </c>
       <c r="D8" t="n">
         <v>549.0443725585938</v>
       </c>
       <c r="E8" t="n">
-        <v>355.0</v>
+        <v>367.0</v>
       </c>
     </row>
     <row r="9">
@@ -219,13 +219,13 @@
         <v>3.6586999893188477</v>
       </c>
       <c r="C9" t="n">
-        <v>2.242934226989746</v>
+        <v>2.3265609741210938</v>
       </c>
       <c r="D9" t="n">
         <v>659.986328125</v>
       </c>
       <c r="E9" t="n">
-        <v>333.0</v>
+        <v>355.0</v>
       </c>
     </row>
   </sheetData>

--- a/data/TR/results/Comparison_Results.xlsx
+++ b/data/TR/results/Comparison_Results.xlsx
@@ -117,13 +117,13 @@
         <v>23.69480013847351</v>
       </c>
       <c r="C2" t="n">
-        <v>13.537293434143066</v>
+        <v>13.989328384399414</v>
       </c>
       <c r="D2" t="n">
         <v>3463.4730834960938</v>
       </c>
       <c r="E2" t="n">
-        <v>2037.0</v>
+        <v>2039.0</v>
       </c>
     </row>
     <row r="4">
@@ -134,13 +134,13 @@
         <v>4.0243000984191895</v>
       </c>
       <c r="C4" t="n">
-        <v>2.3344414234161377</v>
+        <v>2.2315924167633057</v>
       </c>
       <c r="D4" t="n">
         <v>558.034423828125</v>
       </c>
       <c r="E4" t="n">
-        <v>341.0</v>
+        <v>339.0</v>
       </c>
     </row>
     <row r="5">
@@ -151,13 +151,13 @@
         <v>4.17710018157959</v>
       </c>
       <c r="C5" t="n">
-        <v>2.544760227203369</v>
+        <v>2.345822334289551</v>
       </c>
       <c r="D5" t="n">
         <v>554.5313720703125</v>
       </c>
       <c r="E5" t="n">
-        <v>328.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="6">
@@ -168,13 +168,13 @@
         <v>3.596299886703491</v>
       </c>
       <c r="C6" t="n">
-        <v>2.444021701812744</v>
+        <v>2.624532699584961</v>
       </c>
       <c r="D6" t="n">
         <v>533.150390625</v>
       </c>
       <c r="E6" t="n">
-        <v>348.0</v>
+        <v>337.0</v>
       </c>
     </row>
     <row r="7">
@@ -185,13 +185,13 @@
         <v>4.21150016784668</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0568490028381348</v>
+        <v>2.120365858078003</v>
       </c>
       <c r="D7" t="n">
         <v>608.7261962890625</v>
       </c>
       <c r="E7" t="n">
-        <v>340.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="8">
@@ -202,13 +202,13 @@
         <v>4.026899814605713</v>
       </c>
       <c r="C8" t="n">
-        <v>2.2568979263305664</v>
+        <v>2.39312481880188</v>
       </c>
       <c r="D8" t="n">
         <v>549.0443725585938</v>
       </c>
       <c r="E8" t="n">
-        <v>345.0</v>
+        <v>339.0</v>
       </c>
     </row>
     <row r="9">
@@ -219,13 +219,13 @@
         <v>3.6586999893188477</v>
       </c>
       <c r="C9" t="n">
-        <v>1.9003232717514038</v>
+        <v>2.2738900184631348</v>
       </c>
       <c r="D9" t="n">
         <v>659.986328125</v>
       </c>
       <c r="E9" t="n">
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
     </row>
   </sheetData>
